--- a/GUI + Reviews/202512/Review 202512/Dataiku/EUS5P_EMS_2025-12-11_2025-12-11-23-27-01.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/EUS5P_EMS_2025-12-11_2025-12-11-23-27-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_A7F6D8E9CF96A157A9DECB76399B7A7FE068EEF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00FFBFD9-3C75-4029-AFC8-501D3AD5BFE6}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_A7F6D8E9CF96A157A9DECB76399B7A7FE068EEF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92778C2-A6A7-4E85-A68B-40CA036EB7F4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
@@ -775,6 +775,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1066,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:I51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q45:Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GUI + Reviews/202512/Review 202512/Dataiku/EUS5P_EMS_2025-12-11_2025-12-11-23-27-01.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/EUS5P_EMS_2025-12-11_2025-12-11-23-27-01.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_A7F6D8E9CF96A157A9DECB76399B7A7FE068EEF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92778C2-A6A7-4E85-A68B-40CA036EB7F4}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -427,8 +405,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,300 +469,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Index Composition"/>
-      <sheetName val="Inclusion"/>
-      <sheetName val="Exclusion"/>
-      <sheetName val="Full Universe"/>
-      <sheetName val="Index Market Cap"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>BE0974293251</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>FR0000120073</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>NL0000235190</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>DE0008404005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>US02079K3059</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>US0231351067</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>US0378331005</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>NL0010273215</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>FR0000120628</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>ES0113900J37</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>ES0113211835</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>US0846707026</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>FR0000131104</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>US11135F1012</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>FR0000120644</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>DE0005140008</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>DE0005557508</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>US5324571083</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>IT0003128367</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>FR0000121667</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>US30231G1022</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>FR0000052292</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>ES0144580Y14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>NL0011821202</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>IT0000072618</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>US4781601046</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>US46625H1005</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>FR0000120321</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>FR0000121014</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>US30303M1027</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>US5949181045</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>DE0008430026</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>US64110L1061</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>US67066G1040</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>NL0013654783</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>GB00B2B0DG97</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>DE0007030009</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>FR0000073272</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>FR0000120578</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>DE0007164600</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>FR0000121972</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>GB00BP6MXD84</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>DE0007236101</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>DE000ENER6Y0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>US88160R1014</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>FR0000120271</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>IT0005239360</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>GB00BVZK7T90</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>FR0000125486</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>US92826C8394</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -822,7 +513,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -856,7 +547,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -891,10 +581,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1067,26 +756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q45:Q46"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1137,12 +814,8 @@
       <c r="H2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" t="b">
-        <f>ISNUMBER(MATCH(B2,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1167,12 +840,8 @@
       <c r="H3" t="s">
         <v>118</v>
       </c>
-      <c r="I3" t="b">
-        <f>ISNUMBER(MATCH(B3,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1197,12 +866,8 @@
       <c r="H4" t="s">
         <v>118</v>
       </c>
-      <c r="I4" t="b">
-        <f>ISNUMBER(MATCH(B4,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1227,12 +892,8 @@
       <c r="H5" t="s">
         <v>118</v>
       </c>
-      <c r="I5" t="b">
-        <f>ISNUMBER(MATCH(B5,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1257,12 +918,8 @@
       <c r="H6" t="s">
         <v>119</v>
       </c>
-      <c r="I6" t="b">
-        <f>ISNUMBER(MATCH(B6,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1287,12 +944,8 @@
       <c r="H7" t="s">
         <v>119</v>
       </c>
-      <c r="I7" t="b">
-        <f>ISNUMBER(MATCH(B7,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1317,12 +970,8 @@
       <c r="H8" t="s">
         <v>119</v>
       </c>
-      <c r="I8" t="b">
-        <f>ISNUMBER(MATCH(B8,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1347,12 +996,8 @@
       <c r="H9" t="s">
         <v>118</v>
       </c>
-      <c r="I9" t="b">
-        <f>ISNUMBER(MATCH(B9,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1377,12 +1022,8 @@
       <c r="H10" t="s">
         <v>118</v>
       </c>
-      <c r="I10" t="b">
-        <f>ISNUMBER(MATCH(B10,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1407,12 +1048,8 @@
       <c r="H11" t="s">
         <v>118</v>
       </c>
-      <c r="I11" t="b">
-        <f>ISNUMBER(MATCH(B11,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1437,12 +1074,8 @@
       <c r="H12" t="s">
         <v>118</v>
       </c>
-      <c r="I12" t="b">
-        <f>ISNUMBER(MATCH(B12,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1467,12 +1100,8 @@
       <c r="H13" t="s">
         <v>119</v>
       </c>
-      <c r="I13" t="b">
-        <f>ISNUMBER(MATCH(B13,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1497,12 +1126,8 @@
       <c r="H14" t="s">
         <v>118</v>
       </c>
-      <c r="I14" t="b">
-        <f>ISNUMBER(MATCH(B14,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1527,12 +1152,8 @@
       <c r="H15" t="s">
         <v>119</v>
       </c>
-      <c r="I15" t="b">
-        <f>ISNUMBER(MATCH(B15,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1557,12 +1178,8 @@
       <c r="H16" t="s">
         <v>118</v>
       </c>
-      <c r="I16" t="b">
-        <f>ISNUMBER(MATCH(B16,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1587,12 +1204,8 @@
       <c r="H17" t="s">
         <v>118</v>
       </c>
-      <c r="I17" t="b">
-        <f>ISNUMBER(MATCH(B17,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1617,12 +1230,8 @@
       <c r="H18" t="s">
         <v>118</v>
       </c>
-      <c r="I18" t="b">
-        <f>ISNUMBER(MATCH(B18,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1647,12 +1256,8 @@
       <c r="H19" t="s">
         <v>119</v>
       </c>
-      <c r="I19" t="b">
-        <f>ISNUMBER(MATCH(B19,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1677,12 +1282,8 @@
       <c r="H20" t="s">
         <v>118</v>
       </c>
-      <c r="I20" t="b">
-        <f>ISNUMBER(MATCH(B20,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1707,12 +1308,8 @@
       <c r="H21" t="s">
         <v>118</v>
       </c>
-      <c r="I21" t="b">
-        <f>ISNUMBER(MATCH(B21,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1737,12 +1334,8 @@
       <c r="H22" t="s">
         <v>119</v>
       </c>
-      <c r="I22" t="b">
-        <f>ISNUMBER(MATCH(B22,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1767,12 +1360,8 @@
       <c r="H23" t="s">
         <v>118</v>
       </c>
-      <c r="I23" t="b">
-        <f>ISNUMBER(MATCH(B23,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1797,12 +1386,8 @@
       <c r="H24" t="s">
         <v>118</v>
       </c>
-      <c r="I24" t="b">
-        <f>ISNUMBER(MATCH(B24,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1827,12 +1412,8 @@
       <c r="H25" t="s">
         <v>118</v>
       </c>
-      <c r="I25" t="b">
-        <f>ISNUMBER(MATCH(B25,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1857,12 +1438,8 @@
       <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="I26" t="b">
-        <f>ISNUMBER(MATCH(B26,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1887,12 +1464,8 @@
       <c r="H27" t="s">
         <v>119</v>
       </c>
-      <c r="I27" t="b">
-        <f>ISNUMBER(MATCH(B27,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1917,12 +1490,8 @@
       <c r="H28" t="s">
         <v>119</v>
       </c>
-      <c r="I28" t="b">
-        <f>ISNUMBER(MATCH(B28,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1947,12 +1516,8 @@
       <c r="H29" t="s">
         <v>118</v>
       </c>
-      <c r="I29" t="b">
-        <f>ISNUMBER(MATCH(B29,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1977,12 +1542,8 @@
       <c r="H30" t="s">
         <v>118</v>
       </c>
-      <c r="I30" t="b">
-        <f>ISNUMBER(MATCH(B30,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2007,12 +1568,8 @@
       <c r="H31" t="s">
         <v>119</v>
       </c>
-      <c r="I31" t="b">
-        <f>ISNUMBER(MATCH(B31,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2037,12 +1594,8 @@
       <c r="H32" t="s">
         <v>119</v>
       </c>
-      <c r="I32" t="b">
-        <f>ISNUMBER(MATCH(B32,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2067,12 +1620,8 @@
       <c r="H33" t="s">
         <v>118</v>
       </c>
-      <c r="I33" t="b">
-        <f>ISNUMBER(MATCH(B33,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2097,12 +1646,8 @@
       <c r="H34" t="s">
         <v>119</v>
       </c>
-      <c r="I34" t="b">
-        <f>ISNUMBER(MATCH(B34,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2127,12 +1672,8 @@
       <c r="H35" t="s">
         <v>118</v>
       </c>
-      <c r="I35" t="b">
-        <f>ISNUMBER(MATCH(B35,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2157,12 +1698,8 @@
       <c r="H36" t="s">
         <v>118</v>
       </c>
-      <c r="I36" t="b">
-        <f>ISNUMBER(MATCH(B36,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2187,12 +1724,8 @@
       <c r="H37" t="s">
         <v>118</v>
       </c>
-      <c r="I37" t="b">
-        <f>ISNUMBER(MATCH(B37,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2217,12 +1750,8 @@
       <c r="H38" t="s">
         <v>118</v>
       </c>
-      <c r="I38" t="b">
-        <f>ISNUMBER(MATCH(B38,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2247,12 +1776,8 @@
       <c r="H39" t="s">
         <v>118</v>
       </c>
-      <c r="I39" t="b">
-        <f>ISNUMBER(MATCH(B39,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2277,12 +1802,8 @@
       <c r="H40" t="s">
         <v>118</v>
       </c>
-      <c r="I40" t="b">
-        <f>ISNUMBER(MATCH(B40,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2307,12 +1828,8 @@
       <c r="H41" t="s">
         <v>118</v>
       </c>
-      <c r="I41" t="b">
-        <f>ISNUMBER(MATCH(B41,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2337,12 +1854,8 @@
       <c r="H42" t="s">
         <v>118</v>
       </c>
-      <c r="I42" t="b">
-        <f>ISNUMBER(MATCH(B42,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2367,12 +1880,8 @@
       <c r="H43" t="s">
         <v>118</v>
       </c>
-      <c r="I43" t="b">
-        <f>ISNUMBER(MATCH(B43,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2397,12 +1906,8 @@
       <c r="H44" t="s">
         <v>118</v>
       </c>
-      <c r="I44" t="b">
-        <f>ISNUMBER(MATCH(B44,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2427,12 +1932,8 @@
       <c r="H45" t="s">
         <v>119</v>
       </c>
-      <c r="I45" t="b">
-        <f>ISNUMBER(MATCH(B45,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2457,12 +1958,8 @@
       <c r="H46" t="s">
         <v>118</v>
       </c>
-      <c r="I46" t="b">
-        <f>ISNUMBER(MATCH(B46,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2487,12 +1984,8 @@
       <c r="H47" t="s">
         <v>118</v>
       </c>
-      <c r="I47" t="b">
-        <f>ISNUMBER(MATCH(B47,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2517,12 +2010,8 @@
       <c r="H48" t="s">
         <v>118</v>
       </c>
-      <c r="I48" t="b">
-        <f>ISNUMBER(MATCH(B48,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2547,12 +2036,8 @@
       <c r="H49" t="s">
         <v>118</v>
       </c>
-      <c r="I49" t="b">
-        <f>ISNUMBER(MATCH(B49,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2577,12 +2062,8 @@
       <c r="H50" t="s">
         <v>119</v>
       </c>
-      <c r="I50" t="b">
-        <f>ISNUMBER(MATCH(B50,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2607,28 +2088,21 @@
       <c r="H51" t="s">
         <v>119</v>
       </c>
-      <c r="I51" t="b">
-        <f>ISNUMBER(MATCH(B51,'[1]Index Composition'!$B$2:$B$51,0))</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2650,7 +2124,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2661,7 +2135,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -2674,21 +2148,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2699,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2710,7 +2181,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2721,7 +2192,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -2732,7 +2203,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -2745,8 +2216,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>